--- a/Examples/steam/steam_model.xlsx
+++ b/Examples/steam/steam_model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab\Ejemplos\steam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\steam\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A431B-0D13-4276-92D5-24B3CEFD6D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="3600" yWindow="255" windowWidth="17295" windowHeight="12525" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="4" r:id="rId1"/>
@@ -17,18 +18,48 @@
     <sheet name="Flows" sheetId="2" r:id="rId3"/>
     <sheet name="Processes" sheetId="1" r:id="rId4"/>
     <sheet name="Exergy" sheetId="3" r:id="rId5"/>
+    <sheet name="Format" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="tgas_fmt" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab2\Ejemplos\tgas\tgas_fmt.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Boiler</t>
   </si>
@@ -114,27 +145,6 @@
     <t>B9</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
     <t>INTERNAL</t>
   </si>
   <si>
@@ -165,9 +175,6 @@
     <t>B6+B9</t>
   </si>
   <si>
-    <t>B10+B11</t>
-  </si>
-  <si>
     <t>B4-B5</t>
   </si>
   <si>
@@ -180,9 +187,6 @@
     <t>B8-B7</t>
   </si>
   <si>
-    <t>B12+B13+B14</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -226,12 +230,75 @@
   </si>
   <si>
     <t>PROCESS</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>WT1+WT2</t>
+  </si>
+  <si>
+    <t>WP1+WP2+WN</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>EXERGY_COST</t>
+  </si>
+  <si>
+    <t>EXERGY_UNIT_COST</t>
+  </si>
+  <si>
+    <t>(J/J)</t>
+  </si>
+  <si>
+    <t>GENERALIZED_COST</t>
+  </si>
+  <si>
+    <t>(c/h)</t>
+  </si>
+  <si>
+    <t>GENERALIZED_UNIT_COST</t>
+  </si>
+  <si>
+    <t>(c/kWh)</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +346,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -294,19 +373,19 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +420,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1"/>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -354,7 +439,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo 2"/>
+          <xdr:cNvPr id="3" name="Rectángulo 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -422,7 +513,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Trapecio 3"/>
+          <xdr:cNvPr id="4" name="Trapecio 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -470,7 +567,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Trapecio 4"/>
+          <xdr:cNvPr id="5" name="Trapecio 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -518,7 +621,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Elipse 5"/>
+          <xdr:cNvPr id="6" name="Elipse 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -566,7 +675,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Elipse 6"/>
+          <xdr:cNvPr id="7" name="Elipse 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -615,7 +730,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectángulo 7"/>
+          <xdr:cNvPr id="8" name="Rectángulo 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -663,7 +784,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Elipse 8"/>
+          <xdr:cNvPr id="9" name="Elipse 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -711,7 +838,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Elipse 9"/>
+          <xdr:cNvPr id="10" name="Elipse 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -759,7 +892,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+          <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="4" idx="2"/>
           </xdr:cNvCxnSpPr>
@@ -798,7 +937,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="Conector recto de flecha 11"/>
+          <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="5" idx="2"/>
             <a:endCxn id="6" idx="2"/>
@@ -838,7 +983,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Conector recto de flecha 12"/>
+          <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="6" idx="6"/>
           </xdr:cNvCxnSpPr>
@@ -877,7 +1028,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="Conector recto de flecha 13"/>
+          <xdr:cNvPr id="14" name="Conector recto de flecha 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="7" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -916,7 +1073,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
+          <xdr:cNvPr id="15" name="Conector recto de flecha 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="7" idx="4"/>
             <a:endCxn id="9" idx="0"/>
@@ -956,7 +1119,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="Conector recto de flecha 15"/>
+          <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="9" idx="2"/>
             <a:endCxn id="8" idx="3"/>
@@ -996,7 +1165,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="Conector recto de flecha 16"/>
+          <xdr:cNvPr id="17" name="Conector recto de flecha 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1033,7 +1208,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="Conector recto de flecha 17"/>
+          <xdr:cNvPr id="18" name="Conector recto de flecha 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1070,7 +1251,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
+          <xdr:cNvPr id="19" name="Conector recto de flecha 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1107,7 +1294,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
+          <xdr:cNvPr id="20" name="Conector recto de flecha 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1144,7 +1337,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
+          <xdr:cNvPr id="21" name="Conector recto de flecha 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="6" idx="5"/>
           </xdr:cNvCxnSpPr>
@@ -1183,7 +1382,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Conector recto de flecha 21"/>
+          <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="9" idx="5"/>
           </xdr:cNvCxnSpPr>
@@ -1222,7 +1427,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="Conector recto de flecha 22"/>
+          <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1259,7 +1470,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="Conector recto de flecha 23"/>
+          <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="7" idx="6"/>
           </xdr:cNvCxnSpPr>
@@ -1298,7 +1515,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="CuadroTexto 63"/>
+          <xdr:cNvPr id="25" name="CuadroTexto 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1344,7 +1567,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="CuadroTexto 64"/>
+          <xdr:cNvPr id="26" name="CuadroTexto 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1390,7 +1619,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="CuadroTexto 65"/>
+          <xdr:cNvPr id="27" name="CuadroTexto 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1436,7 +1671,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="CuadroTexto 66"/>
+          <xdr:cNvPr id="28" name="CuadroTexto 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1482,7 +1723,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="CuadroTexto 67"/>
+          <xdr:cNvPr id="29" name="CuadroTexto 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1528,7 +1775,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="CuadroTexto 68"/>
+          <xdr:cNvPr id="30" name="CuadroTexto 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1574,7 +1827,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="CuadroTexto 70"/>
+          <xdr:cNvPr id="31" name="CuadroTexto 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1620,7 +1879,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="CuadroTexto 71"/>
+          <xdr:cNvPr id="32" name="CuadroTexto 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1666,7 +1931,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="CuadroTexto 72"/>
+          <xdr:cNvPr id="33" name="CuadroTexto 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1712,7 +1983,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="CuadroTexto 74"/>
+          <xdr:cNvPr id="34" name="CuadroTexto 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1758,7 +2035,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="CuadroTexto 75"/>
+          <xdr:cNvPr id="35" name="CuadroTexto 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1804,7 +2087,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="CuadroTexto 76"/>
+          <xdr:cNvPr id="36" name="CuadroTexto 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1850,7 +2139,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="CuadroTexto 77"/>
+          <xdr:cNvPr id="37" name="CuadroTexto 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1899,7 +2194,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="CuadroTexto 78"/>
+          <xdr:cNvPr id="38" name="CuadroTexto 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1945,7 +2246,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="CuadroTexto 79"/>
+          <xdr:cNvPr id="39" name="CuadroTexto 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1991,7 +2298,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="CuadroTexto 80"/>
+          <xdr:cNvPr id="40" name="CuadroTexto 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2037,7 +2350,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="CuadroTexto 81"/>
+          <xdr:cNvPr id="41" name="CuadroTexto 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2083,7 +2402,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="CuadroTexto 82"/>
+          <xdr:cNvPr id="42" name="CuadroTexto 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2129,7 +2454,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="CuadroTexto 83"/>
+          <xdr:cNvPr id="43" name="CuadroTexto 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2175,7 +2506,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="CuadroTexto 84"/>
+          <xdr:cNvPr id="44" name="CuadroTexto 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2221,7 +2558,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="CuadroTexto 86"/>
+          <xdr:cNvPr id="45" name="CuadroTexto 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2267,7 +2610,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="CuadroTexto 87"/>
+          <xdr:cNvPr id="46" name="CuadroTexto 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2313,7 +2662,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="CuadroTexto 88"/>
+          <xdr:cNvPr id="47" name="CuadroTexto 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2359,7 +2714,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="CuadroTexto 90"/>
+          <xdr:cNvPr id="48" name="CuadroTexto 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2405,7 +2766,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="49" name="Conector angular 48"/>
+          <xdr:cNvPr id="49" name="Conector angular 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="3" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2444,7 +2811,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="50" name="Conector recto de flecha 49"/>
+          <xdr:cNvPr id="50" name="Conector recto de flecha 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2481,7 +2854,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="Conector angular 50"/>
+          <xdr:cNvPr id="51" name="Conector angular 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2520,7 +2899,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="Conector recto 51"/>
+          <xdr:cNvPr id="52" name="Conector recto 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2556,7 +2941,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Arco de bloque 52"/>
+          <xdr:cNvPr id="53" name="Arco de bloque 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2610,7 +3001,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="54" name="Conector recto de flecha 53"/>
+          <xdr:cNvPr id="54" name="Conector recto de flecha 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="53" idx="1"/>
             <a:endCxn id="8" idx="0"/>
@@ -2650,7 +3047,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="55" name="Conector recto 54"/>
+          <xdr:cNvPr id="55" name="Conector recto 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2680,7 +3083,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Conector recto 55"/>
+          <xdr:cNvPr id="56" name="Conector recto 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2710,7 +3119,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="57" name="Conector recto 56"/>
+          <xdr:cNvPr id="57" name="Conector recto 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2740,7 +3155,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="Conector recto 57"/>
+          <xdr:cNvPr id="58" name="Conector recto 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2770,7 +3191,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="CuadroTexto 109"/>
+          <xdr:cNvPr id="59" name="CuadroTexto 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2818,6 +3245,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tgas_fmt" connectionId="1" xr16:uid="{E6068AA7-B135-4C94-9511-6E0750806328}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3082,7 +3513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -3100,13 +3531,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3116,71 +3547,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3189,11 +3620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,10 +3633,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3214,7 +3645,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3677,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,7 +3685,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3262,7 +3693,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3270,7 +3701,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,68 +3709,68 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B17" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$B$2:$B$17</formula1>
     </dataValidation>
   </dataValidations>
@@ -3347,7 +3778,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -3360,29 +3791,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3394,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3411,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3428,10 +3862,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3445,10 +3879,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3462,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -3479,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3496,10 +3930,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -3513,10 +3947,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3527,13 +3961,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Processes Type" error="Invalid Type">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Processes Type" error="Invalid Type" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
@@ -3546,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3556,189 +3990,205 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>52</v>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" t="str">
+        <f>Flows!A2</f>
+        <v>B1</v>
+      </c>
+      <c r="B2">
         <v>51121</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>49259</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" t="str">
+        <f>Flows!A3</f>
+        <v>B2</v>
+      </c>
+      <c r="B3" s="3">
         <v>35868</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>36252</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" t="str">
+        <f>Flows!A4</f>
+        <v>B3</v>
+      </c>
+      <c r="B4" s="3">
         <v>42109</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>42560</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" t="str">
+        <f>Flows!A5</f>
+        <v>B4</v>
+      </c>
+      <c r="B5" s="3">
         <v>5459</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5517</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" t="str">
+        <f>Flows!A6</f>
+        <v>B5</v>
+      </c>
+      <c r="B6" s="3">
         <v>118.7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" t="str">
+        <f>Flows!A7</f>
+        <v>B6</v>
+      </c>
+      <c r="B7" s="3">
         <v>218.6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>220.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" t="str">
+        <f>Flows!A8</f>
+        <v>B7</v>
+      </c>
+      <c r="B8" s="3">
         <v>2359</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1269</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" t="str">
+        <f>Flows!A9</f>
+        <v>B8</v>
+      </c>
+      <c r="B9" s="3">
         <v>2639</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1530</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" t="str">
+        <f>Flows!A10</f>
+        <v>B9</v>
+      </c>
+      <c r="B10" s="3">
         <v>4696</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2835</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" t="str">
+        <f>Flows!A11</f>
+        <v>WT1</v>
+      </c>
+      <c r="B11" s="3">
         <v>9739</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>9384</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" t="str">
+        <f>Flows!A12</f>
+        <v>WT2</v>
+      </c>
+      <c r="B12" s="3">
         <v>31517</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>31854</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" t="str">
+        <f>Flows!A13</f>
+        <v>WP1</v>
+      </c>
+      <c r="B13" s="3">
         <v>115.9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>117.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" t="str">
+        <f>Flows!A14</f>
+        <v>WP2</v>
+      </c>
+      <c r="B14" s="3">
         <v>314.60000000000002</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>296.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" t="str">
+        <f>Flows!A15</f>
+        <v>WN</v>
+      </c>
+      <c r="B15" s="3">
         <v>40000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>40000</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" t="str">
+        <f>Flows!A16</f>
+        <v>NG</v>
+      </c>
+      <c r="B16" s="3">
         <v>129713</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>130587</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" t="str">
+        <f>Flows!A17</f>
+        <v>QC</v>
+      </c>
+      <c r="B17" s="3">
         <v>5340</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>5397</v>
       </c>
     </row>
@@ -3746,4 +4196,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2B517A-5EDF-436E-AF19-A02D8DBED790}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Examples/steam/steam_model.xlsx
+++ b/Examples/steam/steam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\steam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\steam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A431B-0D13-4276-92D5-24B3CEFD6D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75D8EAD-CA22-4E90-8D95-BBB41C257CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="255" windowWidth="17295" windowHeight="12525" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="4" r:id="rId1"/>
@@ -3794,12 +3794,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3808,7 +3809,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>33</v>
@@ -3817,15 +3818,15 @@
         <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>57</v>
@@ -3833,16 +3834,16 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -3850,16 +3851,16 @@
       <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
@@ -3867,16 +3868,16 @@
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>60</v>
@@ -3884,16 +3885,16 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
@@ -3901,16 +3902,16 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>61</v>
@@ -3918,16 +3919,16 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
@@ -3935,16 +3936,16 @@
       <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
@@ -3952,8 +3953,8 @@
       <c r="D9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3965,13 +3966,13 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E9</xm:sqref>
+          <xm:sqref>B3:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Processes Type" error="Invalid Type" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4202,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2B517A-5EDF-436E-AF19-A02D8DBED790}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
